--- a/biology/Zoologie/Aristelliger_praesignis/Aristelliger_praesignis.xlsx
+++ b/biology/Zoologie/Aristelliger_praesignis/Aristelliger_praesignis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aristelliger praesignis est une espèce de geckos de la famille des Sphaerodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aristelliger praesignis est une espèce de geckos de la famille des Sphaerodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans les îles Swan au Honduras ;
 dans les îles Caïmans ;
 en Jamaïque.</t>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce arboricole, nocturne et insectivore.
 </t>
@@ -575,9 +591,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (31 mai 2012)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (31 mai 2012) :
 Aristelliger praesignis nelsoni Barbour, 1914
 Aristelliger praesignis praesignis (Hallowell, 1856)</t>
         </is>
@@ -607,7 +625,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Barbour, 1914 : A Contribution to the Zoögeography of the West Indies, with Especial Reference to Amphibians and Reptiles. Memoirs of the Museum of Comparative Zoölogy, vol. 44, n. 2, p. 205-359 (texte intégral).
 Hallowell, 1856 : Notes on the reptiles in the collection of the Academy of Natural Sciences of Philadelphia. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 8, p. 221-238 (texte intégral).</t>
